--- a/Data/StructuredNote_template.xlsx
+++ b/Data/StructuredNote_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Study_File\NYU_Tandon_MFE\Fulltime Application Issue\CITICS_internship\StructuredNoteEventWarning\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\GitHub\StructuredNoteWarning\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61E616E-4B60-4F27-B873-A60D527CA725}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D178ECA-C1E0-40DC-A271-9219FDAED67D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6A184EC-CC72-4F97-AB16-EF7A3FD89864}"/>
+    <workbookView xWindow="8235" yWindow="2775" windowWidth="17265" windowHeight="10650" xr2:uid="{A6A184EC-CC72-4F97-AB16-EF7A3FD89864}"/>
   </bookViews>
   <sheets>
     <sheet name="条款" sheetId="1" r:id="rId1"/>
@@ -659,7 +659,7 @@
   <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Data/StructuredNote_template.xlsx
+++ b/Data/StructuredNote_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\GitHub\StructuredNoteWarning\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D178ECA-C1E0-40DC-A271-9219FDAED67D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA87C4B-435F-4970-872C-F21C53C963A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8235" yWindow="2775" windowWidth="17265" windowHeight="10650" xr2:uid="{A6A184EC-CC72-4F97-AB16-EF7A3FD89864}"/>
+    <workbookView xWindow="1470" yWindow="3210" windowWidth="21600" windowHeight="11385" xr2:uid="{A6A184EC-CC72-4F97-AB16-EF7A3FD89864}"/>
   </bookViews>
   <sheets>
     <sheet name="条款" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>Litai Ren</author>
   </authors>
   <commentList>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{0909E77F-C9D7-4816-90D5-94626CA052D4}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{0909E77F-C9D7-4816-90D5-94626CA052D4}">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{805374D4-325C-4C48-B8B0-36D17537293F}">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{805374D4-325C-4C48-B8B0-36D17537293F}">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{15A0D31B-7D0F-4E90-9203-D69DD33F9BDC}">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{15A0D31B-7D0F-4E90-9203-D69DD33F9BDC}">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{5FFC1CBC-1407-42BF-BECE-5C580A16A2A2}">
+    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{5FFC1CBC-1407-42BF-BECE-5C580A16A2A2}">
       <text>
         <r>
           <rPr>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>当前日期</t>
   </si>
@@ -270,6 +270,21 @@
   </si>
   <si>
     <t>最后更新日期</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>中证雪球1807</t>
+  </si>
+  <si>
+    <t>中证固息1807</t>
+  </si>
+  <si>
+    <t>中证凤凰1807</t>
+  </si>
+  <si>
+    <t>中证鲨鱼1807</t>
   </si>
 </sst>
 </file>
@@ -656,20 +671,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C0B437-9AED-4B7B-A18D-05F0A6EFC4E0}">
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="6" max="8" width="12.85546875" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+    <col min="7" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15.75">
+    <row r="1" spans="1:35" ht="15.75">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -677,339 +692,354 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15.75">
+    <row r="2" spans="1:35" ht="15.75">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="6">
         <v>43541</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>43292</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
         <v>44027</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>1.0349999999999999</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>1</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>0.72</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="O2" s="5" t="s">
+      <c r="N2" s="4"/>
+      <c r="P2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="T2">
+      <c r="S2" s="2"/>
+      <c r="U2">
         <v>100</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1</v>
       </c>
-      <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2">
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2">
         <v>0</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>42</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="6">
         <v>43384</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>43292</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>44027</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>1.02</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>0.88</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="R3" s="2"/>
-      <c r="T3">
+      <c r="N3" s="4"/>
+      <c r="S3" s="2"/>
+      <c r="U3">
         <v>100</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1</v>
       </c>
-      <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3">
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3">
         <v>0</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>1</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>42</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="15.75">
+    <row r="4" spans="1:35" ht="15.75">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="6">
         <v>43514</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>43292</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>44027</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>1.02</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>0.75</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>0.75</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="T4">
+      <c r="S4" s="2"/>
+      <c r="U4">
         <v>100</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1</v>
       </c>
-      <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4">
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4">
         <v>0</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>1</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>42</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>43</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="6">
         <v>44022</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>43292</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>44022</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>44027</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>1.02</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
-      <c r="R5" s="2"/>
-      <c r="T5">
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
+      <c r="S5" s="2"/>
+      <c r="U5">
         <v>100</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1</v>
       </c>
-      <c r="W5" s="4">
+      <c r="X5" s="4">
         <v>0.04</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Y5" s="4">
         <v>1</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Z5" s="4">
         <v>3</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="AA5" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>0</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>1</v>
       </c>
     </row>
